--- a/Arif 0805/Arif 0805.xlsx
+++ b/Arif 0805/Arif 0805.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Scraping\Don Osterloh\Scraping data\Arif 0805\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{511943F9-DAD4-4E94-AE8B-7B06E65E59FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9181DC32-D1A5-445F-8B23-366556B35C22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -233,7 +233,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -276,7 +276,7 @@
     <font>
       <b/>
       <sz val="14"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="Eurostile"/>
       <charset val="134"/>
     </font>
@@ -284,7 +284,7 @@
       <b/>
       <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -292,7 +292,7 @@
     <font>
       <b/>
       <sz val="14"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -300,29 +300,11 @@
     <font>
       <b/>
       <sz val="14"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Eurostile"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -337,7 +319,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -374,7 +362,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -392,12 +380,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -406,9 +388,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -422,17 +401,20 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -712,17 +694,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="69.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="69.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="84.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="78.85546875" style="2" customWidth="1"/>
     <col min="4" max="4" width="49.7109375" style="3" customWidth="1"/>
-    <col min="5" max="7" width="19.5703125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="25" style="3" customWidth="1"/>
+    <col min="6" max="7" width="19.5703125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -748,354 +731,354 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="20" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A2" s="17" t="s">
+    <row r="2" spans="1:7" s="17" customFormat="1" ht="33.75" customHeight="1">
+      <c r="A2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
     </row>
-    <row r="3" spans="1:7" s="9" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:7" s="17" customFormat="1" ht="33.75" customHeight="1">
+      <c r="A3" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
     </row>
-    <row r="4" spans="1:7" s="9" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:7" s="17" customFormat="1" ht="33.75" customHeight="1">
+      <c r="A4" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
     </row>
-    <row r="5" spans="1:7" s="9" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:7" s="17" customFormat="1" ht="33.75" customHeight="1">
+      <c r="A5" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
     </row>
-    <row r="6" spans="1:7" s="9" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:7" s="17" customFormat="1" ht="33.75" customHeight="1">
+      <c r="A6" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
     </row>
-    <row r="7" spans="1:7" s="9" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A7" s="7" t="s">
+    <row r="7" spans="1:7" s="17" customFormat="1" ht="33.75" customHeight="1">
+      <c r="A7" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
     </row>
-    <row r="8" spans="1:7" s="9" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A8" s="7" t="s">
+    <row r="8" spans="1:7" s="17" customFormat="1" ht="33.75" customHeight="1">
+      <c r="A8" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
     </row>
-    <row r="9" spans="1:7" s="9" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A9" s="7" t="s">
+    <row r="9" spans="1:7" s="17" customFormat="1" ht="33.75" customHeight="1">
+      <c r="A9" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
     </row>
-    <row r="10" spans="1:7" s="9" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A10" s="7" t="s">
+    <row r="10" spans="1:7" s="17" customFormat="1" ht="33.75" customHeight="1">
+      <c r="A10" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
     </row>
-    <row r="11" spans="1:7" s="9" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A11" s="7" t="s">
+    <row r="11" spans="1:7" s="17" customFormat="1" ht="33.75" customHeight="1">
+      <c r="A11" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
     </row>
-    <row r="12" spans="1:7" s="9" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A12" s="7" t="s">
+    <row r="12" spans="1:7" s="17" customFormat="1" ht="33.75" customHeight="1">
+      <c r="A12" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
     </row>
-    <row r="13" spans="1:7" s="9" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A13" s="7" t="s">
+    <row r="13" spans="1:7" s="17" customFormat="1" ht="33.75" customHeight="1">
+      <c r="A13" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
     </row>
-    <row r="14" spans="1:7" s="9" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A14" s="7" t="s">
+    <row r="14" spans="1:7" s="17" customFormat="1" ht="33.75" customHeight="1">
+      <c r="A14" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
     </row>
-    <row r="15" spans="1:7" s="9" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A15" s="7" t="s">
+    <row r="15" spans="1:7" s="17" customFormat="1" ht="33.75" customHeight="1">
+      <c r="A15" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
     </row>
-    <row r="16" spans="1:7" s="9" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A16" s="7" t="s">
+    <row r="16" spans="1:7" s="17" customFormat="1" ht="33.75" customHeight="1">
+      <c r="A16" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
     </row>
-    <row r="17" spans="1:7" s="9" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A17" s="7" t="s">
+    <row r="17" spans="1:7" s="13" customFormat="1" ht="33.75" customHeight="1">
+      <c r="A17" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="11" t="s">
         <v>55</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
     </row>
-    <row r="18" spans="1:7" s="9" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A18" s="7" t="s">
+    <row r="18" spans="1:7" s="13" customFormat="1" ht="33.75" customHeight="1">
+      <c r="A18" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="11" t="s">
         <v>58</v>
       </c>
       <c r="C18" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
     </row>
-    <row r="19" spans="1:7" s="9" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A19" s="7" t="s">
+    <row r="19" spans="1:7" s="17" customFormat="1" ht="33.75" customHeight="1">
+      <c r="A19" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
     </row>
-    <row r="20" spans="1:7" s="16" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A20" s="13" t="s">
+    <row r="20" spans="1:7" s="17" customFormat="1" ht="33.75" customHeight="1">
+      <c r="A20" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D20" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
     </row>
-    <row r="21" spans="1:7" s="9" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A21" s="7" t="s">
+    <row r="21" spans="1:7" s="17" customFormat="1" ht="33.75" customHeight="1">
+      <c r="A21" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
     </row>
-    <row r="22" spans="1:7" s="9" customFormat="1" ht="33.75" customHeight="1">
-      <c r="C22" s="10"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
+    <row r="22" spans="1:7" s="7" customFormat="1" ht="33.75" customHeight="1">
+      <c r="C22" s="8"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
     </row>
     <row r="1039550" customFormat="1"/>
     <row r="1039551" customFormat="1"/>
